--- a/Paper/data/16blockcategories.xlsx
+++ b/Paper/data/16blockcategories.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="315">
   <si>
     <t>Control</t>
   </si>
@@ -1234,11 +1234,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="138880896"/>
-        <c:axId val="138882432"/>
+        <c:axId val="183787520"/>
+        <c:axId val="183789056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138880896"/>
+        <c:axId val="183787520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,7 +1247,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138882432"/>
+        <c:crossAx val="183789056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1255,7 +1255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138882432"/>
+        <c:axId val="183789056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,7 +1266,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138880896"/>
+        <c:crossAx val="183787520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1371,11 +1371,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="138903936"/>
-        <c:axId val="138893952"/>
+        <c:axId val="183798016"/>
+        <c:axId val="183796480"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="138893952"/>
+        <c:axId val="183796480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1386,12 +1386,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138903936"/>
+        <c:crossAx val="183798016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="138903936"/>
+        <c:axId val="183798016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1400,7 +1400,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138893952"/>
+        <c:crossAx val="183796480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2012,10 +2012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2024,12 +2024,12 @@
     <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>2988779</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>6140576</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2053,23 +2053,39 @@
         <v>718850</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <v>194885</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>194885</v>
+      </c>
+      <c r="R5">
+        <v>19090</v>
+      </c>
+      <c r="S5">
+        <v>233491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6">
         <v>6963761</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="S6">
+        <f>R5/S5</f>
+        <v>8.1759039962996438E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2077,7 +2093,7 @@
         <v>4143655</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2085,7 +2101,7 @@
         <v>6650244</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2093,7 +2109,7 @@
         <v>1494626</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2101,7 +2117,7 @@
         <v>5661689</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>308</v>
       </c>
@@ -2115,7 +2131,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2124,7 +2140,7 @@
         <v>36085654</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>10</v>
       </c>
